--- a/data/trans_orig/IP42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP42B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00FEAEB-2854-4C12-83E3-F720762E2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{910E11B1-C7CA-4CEC-B68A-3F043C1FC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6318CB11-56BA-453B-B6FB-66F4160991A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A042987F-C58A-4886-AEFE-C1A69EA1AB13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,13 +40,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="279">
   <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,49 +73,49 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>18,67%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>13,18%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>81,33%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>86,82%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -124,454 +124,454 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>83,88%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>14,89%</t>
@@ -580,301 +580,301 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>17,77%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>82,23%</t>
+    <t>82,14%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC0FBA6-E279-477E-BF78-DC2E95824AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3D24BE-0A57-400F-9E41-641D1199BFC6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>18667</v>
+        <v>16493</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1470,10 +1470,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>16493</v>
+        <v>18667</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1506,25 +1506,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17158</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>19368</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7">
-        <v>17158</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1559,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2721</v>
+        <v>1939</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1574,10 +1574,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1939</v>
+        <v>2721</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>55971</v>
+        <v>43460</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1625,10 +1625,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>43460</v>
+        <v>55971</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1661,25 +1661,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45399</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>88</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>58692</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45399</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5670</v>
+        <v>2983</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1729,10 +1729,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>2983</v>
+        <v>5670</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -1765,10 +1765,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>24547</v>
+        <v>15294</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -1780,10 +1780,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>15294</v>
+        <v>24547</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1816,25 +1816,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18277</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>45</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>30217</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18277</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1869,34 +1869,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2672</v>
+        <v>6909</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>6909</v>
+        <v>2672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1905,7 +1905,7 @@
         <v>9581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>72</v>
@@ -1920,10 +1920,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>49846</v>
+        <v>48293</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1932,22 +1932,22 @@
         <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>48293</v>
+        <v>49846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -1956,7 +1956,7 @@
         <v>98139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>80</v>
@@ -1971,25 +1971,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>81</v>
+      </c>
+      <c r="D15" s="7">
+        <v>55202</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>78</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>52518</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>81</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55202</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2024,10 +2024,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>11764</v>
+        <v>12496</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -2039,10 +2039,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>12496</v>
+        <v>11764</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -2075,10 +2075,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D17" s="7">
-        <v>149031</v>
+        <v>123541</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2090,10 +2090,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="I17" s="7">
-        <v>123541</v>
+        <v>149031</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2126,25 +2126,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>203</v>
+      </c>
+      <c r="D18" s="7">
+        <v>136037</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>241</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>160795</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>203</v>
-      </c>
-      <c r="I18" s="7">
-        <v>136037</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C93073-0D7A-4C46-ABF4-DA10B6B38E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D457D1-9592-470B-BB74-4BE3C9EDB4DF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2311,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6687</v>
+        <v>6632</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>102</v>
@@ -2326,10 +2326,10 @@
         <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>6632</v>
+        <v>6687</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>105</v>
@@ -2362,10 +2362,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>34791</v>
+        <v>37088</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>111</v>
@@ -2377,10 +2377,10 @@
         <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>37088</v>
+        <v>34791</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>114</v>
@@ -2413,25 +2413,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43720</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>58</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>41478</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>63</v>
-      </c>
-      <c r="I6" s="7">
-        <v>43720</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -2466,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>9804</v>
+        <v>9983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>120</v>
@@ -2481,10 +2481,10 @@
         <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>9983</v>
+        <v>9804</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>123</v>
@@ -2517,10 +2517,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>54536</v>
+        <v>45755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>129</v>
@@ -2532,10 +2532,10 @@
         <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7">
-        <v>45755</v>
+        <v>54536</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>132</v>
@@ -2568,25 +2568,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>55738</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>89</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>64340</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>81</v>
-      </c>
-      <c r="I9" s="7">
-        <v>55738</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2621,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5939</v>
+        <v>4003</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>138</v>
@@ -2636,10 +2636,10 @@
         <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>4003</v>
+        <v>5939</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>141</v>
@@ -2657,13 +2657,13 @@
         <v>9941</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,34 +2672,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7">
+        <v>32313</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="7">
         <v>50</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>35024</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="7">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7">
-        <v>32313</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -2708,13 +2708,13 @@
         <v>67338</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,25 +2723,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36316</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>59</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>40963</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36316</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2776,34 +2776,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7607</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3964</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7607</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2812,13 +2812,13 @@
         <v>11571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,25 +2827,25 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35326</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
         <v>55</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>37289</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="7">
-        <v>50</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35326</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>166</v>
@@ -2881,7 +2881,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="7">
-        <v>41253</v>
+        <v>42933</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -2896,7 +2896,7 @@
         <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>42933</v>
+        <v>41253</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2931,10 +2931,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>26394</v>
+        <v>28224</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>172</v>
@@ -2946,10 +2946,10 @@
         <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>28224</v>
+        <v>26394</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>175</v>
@@ -2982,10 +2982,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>161640</v>
+        <v>150483</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>181</v>
@@ -2997,10 +2997,10 @@
         <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>150483</v>
+        <v>161640</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>184</v>
@@ -3033,25 +3033,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>257</v>
+      </c>
+      <c r="D18" s="7">
+        <v>178707</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>267</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>188034</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>257</v>
-      </c>
-      <c r="I18" s="7">
-        <v>178707</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -3100,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBAC74-8F35-43C1-A7C2-BB1E3EB6A59A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E98F00-E2D8-48EC-8DE7-00B8EB3A74AA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3218,10 +3218,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4860</v>
+        <v>1643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>191</v>
@@ -3233,10 +3233,10 @@
         <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1643</v>
+        <v>4860</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>194</v>
@@ -3269,10 +3269,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>33839</v>
+        <v>38123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>200</v>
@@ -3284,10 +3284,10 @@
         <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>38123</v>
+        <v>33839</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>203</v>
@@ -3320,25 +3320,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39766</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>57</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38699</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>64</v>
-      </c>
-      <c r="I6" s="7">
-        <v>39766</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3373,10 +3373,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3268</v>
+        <v>4570</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>209</v>
@@ -3388,10 +3388,10 @@
         <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4570</v>
+        <v>3268</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>212</v>
@@ -3424,10 +3424,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>74810</v>
+        <v>57317</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>218</v>
@@ -3439,10 +3439,10 @@
         <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I8" s="7">
-        <v>57317</v>
+        <v>74810</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>221</v>
@@ -3475,25 +3475,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7">
+        <v>61887</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>115</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>78078</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>97</v>
-      </c>
-      <c r="I9" s="7">
-        <v>61887</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3528,10 +3528,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>3550</v>
+        <v>3831</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
@@ -3543,10 +3543,10 @@
         <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3831</v>
+        <v>3550</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>230</v>
@@ -3579,10 +3579,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>54043</v>
+        <v>45160</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>236</v>
@@ -3594,10 +3594,10 @@
         <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>45160</v>
+        <v>54043</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>239</v>
@@ -3630,25 +3630,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7">
+        <v>48991</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>82</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>57593</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>73</v>
-      </c>
-      <c r="I12" s="7">
-        <v>48991</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3683,10 +3683,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>5889</v>
+        <v>6985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>245</v>
@@ -3698,10 +3698,10 @@
         <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6985</v>
+        <v>5889</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>248</v>
@@ -3719,7 +3719,7 @@
         <v>12874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>251</v>
@@ -3734,10 +3734,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>54276</v>
+        <v>44445</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>253</v>
@@ -3749,10 +3749,10 @@
         <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>44445</v>
+        <v>54276</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>256</v>
@@ -3770,7 +3770,7 @@
         <v>98721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>259</v>
@@ -3785,25 +3785,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7">
+        <v>51430</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>81</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>60165</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>74</v>
-      </c>
-      <c r="I15" s="7">
-        <v>51430</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3838,10 +3838,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>17567</v>
+        <v>17029</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>261</v>
@@ -3853,10 +3853,10 @@
         <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>17029</v>
+        <v>17567</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>264</v>
@@ -3889,10 +3889,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="D17" s="7">
-        <v>216968</v>
+        <v>185044</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>270</v>
@@ -3904,10 +3904,10 @@
         <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="I17" s="7">
-        <v>185044</v>
+        <v>216968</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>273</v>
@@ -3940,25 +3940,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>308</v>
+      </c>
+      <c r="D18" s="7">
+        <v>202073</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>335</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>234535</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>308</v>
-      </c>
-      <c r="I18" s="7">
-        <v>202073</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
